--- a/ShipmentTracking.xlsx
+++ b/ShipmentTracking.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\GKCouriers\GIT\mage-bera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Products\CargoTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3B89EE-F063-4CC6-AEFC-2F8F11D08D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShipmentTracking" sheetId="1" r:id="rId1"/>
+    <sheet name="Masters" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Sl. No</t>
   </si>
@@ -41,28 +43,55 @@
     <t>Status</t>
   </si>
   <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>25-03-2018 12:30</t>
-  </si>
-  <si>
-    <t>Bengaluru Hub</t>
-  </si>
-  <si>
     <t>In Transit</t>
   </si>
   <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>Sample</t>
+    <t>Reached Nearest Hub</t>
+  </si>
+  <si>
+    <t>Booking Hub</t>
+  </si>
+  <si>
+    <t>Out For Delivery</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Out for Delivery</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>10-06-2019 14:31</t>
+  </si>
+  <si>
+    <t>ReceivedBy</t>
+  </si>
+  <si>
+    <t>RelationShip</t>
+  </si>
+  <si>
+    <t>Magesh</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +130,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -174,10 +209,55 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -192,55 +272,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -249,22 +284,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,112 +590,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="G2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="12">
+      <c r="H2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="I2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Masters!$F$2:$F$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Masters!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="F1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ShipmentTracking.xlsx
+++ b/ShipmentTracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Products\CargoTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3B89EE-F063-4CC6-AEFC-2F8F11D08D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB76807-D3BF-4D49-B9AF-27E052BE12C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>Son</t>
   </si>
   <si>
-    <t>test18</t>
+    <t>test24</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>19</v>
@@ -662,10 +662,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
